--- a/Pruebas de filtro.xlsx
+++ b/Pruebas de filtro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f3a42771cab8a77/Microsoft/Documents-One Note/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f3a42771cab8a77/Formación/Python/GITHUB - Repositorios/Modelos en Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{6EF149E7-E8FD-4B55-80AB-3230CB0E12E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7846AC1E-5011-4AFD-B1C2-D6459A2E0ECE}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{6EF149E7-E8FD-4B55-80AB-3230CB0E12E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5DFAECF-3CE8-4B52-B473-1F0A3C1CC6A1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6003D684-BB4C-4E75-AA0B-FF5125EF508E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6003D684-BB4C-4E75-AA0B-FF5125EF508E}"/>
   </bookViews>
   <sheets>
     <sheet name="Auxilar" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -192,12 +192,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -205,11 +201,16 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -226,19 +227,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -274,15 +270,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>868680</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -297,7 +293,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12755880" y="693420"/>
+          <a:off x="13251180" y="350520"/>
           <a:ext cx="2567940" cy="967740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -353,10 +349,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -693,7 +685,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{93AC230A-8BC8-4661-A8CC-363239E140A4}" name="TablaDinámica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{93AC230A-8BC8-4661-A8CC-363239E140A4}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J2:K41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -898,17 +890,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F220693-9042-4C39-B28D-57A1E3769A11}" name="Tabla1" displayName="Tabla1" ref="B2:G34" totalsRowShown="0" headerRowDxfId="15" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F220693-9042-4C39-B28D-57A1E3769A11}" name="Tabla1" displayName="Tabla1" ref="B2:G34" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B2:G34" xr:uid="{6F220693-9042-4C39-B28D-57A1E3769A11}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4BE27378-4C4F-4F84-BD96-F34ECBF54460}" name="Registro°" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{391A239B-958F-47CE-852E-449C75D29992}" name="Com. Interna" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{F5F3005D-2B9E-450D-AC3D-0B4F27DF61D6}" name="Código" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{3CD4BC0D-A053-4D83-BB6E-9E0C33C27424}" name="Etiqueta" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{EBCB7D47-D69C-4D2D-89D8-A0ED554EAE40}" name="Descripción de etiqueta" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{4BE27378-4C4F-4F84-BD96-F34ECBF54460}" name="Registro°" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{391A239B-958F-47CE-852E-449C75D29992}" name="Com. Interna" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{F5F3005D-2B9E-450D-AC3D-0B4F27DF61D6}" name="Código" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{3CD4BC0D-A053-4D83-BB6E-9E0C33C27424}" name="Etiqueta" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{EBCB7D47-D69C-4D2D-89D8-A0ED554EAE40}" name="Descripción de etiqueta" dataDxfId="9">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Tabla1[[#This Row],[Etiqueta]],Auxilar!$B$3:$B$9,Auxilar!$C$3:$C$9,,0,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7E787917-8B46-4553-B5F8-54630DCE3CBA}" name="Etiqueta 1" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{7E787917-8B46-4553-B5F8-54630DCE3CBA}" name="Etiqueta 1" dataDxfId="8">
       <calculatedColumnFormula>IF(Tabla1[[#This Row],[Descripción de etiqueta]]=Tabla1[[#Headers],[Etiqueta 1]],Tabla1[[#This Row],[Registro°]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -917,20 +909,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA523E53-961E-4B2F-ABA0-4EBF96C4A993}" name="Tabla2" displayName="Tabla2" ref="B3:G33" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA523E53-961E-4B2F-ABA0-4EBF96C4A993}" name="Tabla2" displayName="Tabla2" ref="B3:G33" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B3:G33" xr:uid="{EA523E53-961E-4B2F-ABA0-4EBF96C4A993}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:G33">
     <sortCondition ref="B3:B33"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F9FB4F0F-7A3D-4F6B-857E-DD74CDD6CDE6}" name="N°" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{2B98B22D-79AB-4323-9912-14DE85C9384B}" name="Código" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{F9FB4F0F-7A3D-4F6B-857E-DD74CDD6CDE6}" name="N°" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2B98B22D-79AB-4323-9912-14DE85C9384B}" name="Código" dataDxfId="4">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7D7179EF-C51E-4859-A08D-EFF6DF662245}" name="Fórmula 1" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{964AF7CD-0DA5-4B02-AA23-4202EEFAF70A}" name="Fórmula 2" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D07E9E37-BCA9-4B92-8E02-CD82AEBAE655}" name="Fórmula 3" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6246C660-9DE3-4609-8A08-B38411DF4CC5}" name="Fórmula 4" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{7D7179EF-C51E-4859-A08D-EFF6DF662245}" name="Fórmula 1" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{964AF7CD-0DA5-4B02-AA23-4202EEFAF70A}" name="Fórmula 2" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{D07E9E37-BCA9-4B92-8E02-CD82AEBAE655}" name="Fórmula 3" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{6246C660-9DE3-4609-8A08-B38411DF4CC5}" name="Fórmula 4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1201,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136B325F-205C-4407-85AA-9BBBC3FDBF16}">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1288,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D4113D-3846-41F7-8EB4-BD0949C5A42F}">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1360,7 +1352,7 @@
       <c r="J3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3">
         <v>6</v>
       </c>
       <c r="L3"/>
@@ -1387,10 +1379,10 @@
         <v/>
       </c>
       <c r="H4" s="4"/>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>117037623</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4">
         <v>1</v>
       </c>
       <c r="L4"/>
@@ -1417,10 +1409,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>119383994</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5">
         <v>1</v>
       </c>
       <c r="L5"/>
@@ -1447,10 +1439,10 @@
         <v/>
       </c>
       <c r="H6" s="4"/>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>194607262</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6">
         <v>1</v>
       </c>
       <c r="L6"/>
@@ -1477,10 +1469,10 @@
         <v/>
       </c>
       <c r="H7" s="4"/>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>266363807</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7">
         <v>1</v>
       </c>
       <c r="L7"/>
@@ -1507,10 +1499,10 @@
         <v/>
       </c>
       <c r="H8" s="4"/>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>310110057</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8">
         <v>1</v>
       </c>
       <c r="L8"/>
@@ -1537,10 +1529,10 @@
         <v/>
       </c>
       <c r="H9" s="4"/>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>773094624</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9">
         <v>1</v>
       </c>
       <c r="L9"/>
@@ -1570,7 +1562,7 @@
       <c r="J10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10">
         <v>5</v>
       </c>
       <c r="L10"/>
@@ -1597,10 +1589,10 @@
         <v/>
       </c>
       <c r="H11" s="4"/>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>93795442</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11">
         <v>1</v>
       </c>
       <c r="L11"/>
@@ -1627,10 +1619,10 @@
         <v>10</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>532816183</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12">
         <v>1</v>
       </c>
       <c r="L12"/>
@@ -1657,10 +1649,10 @@
         <v/>
       </c>
       <c r="H13" s="4"/>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>544091650</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13">
         <v>1</v>
       </c>
       <c r="L13"/>
@@ -1687,10 +1679,10 @@
         <v/>
       </c>
       <c r="H14" s="4"/>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>721691299</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14">
         <v>1</v>
       </c>
       <c r="L14"/>
@@ -1717,10 +1709,10 @@
         <v/>
       </c>
       <c r="H15" s="4"/>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>955737237</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15">
         <v>1</v>
       </c>
       <c r="L15"/>
@@ -1750,7 +1742,7 @@
       <c r="J16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16">
         <v>7</v>
       </c>
       <c r="L16"/>
@@ -1777,10 +1769,10 @@
         <v>15</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>19960432</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17">
         <v>1</v>
       </c>
       <c r="L17"/>
@@ -1807,10 +1799,10 @@
         <v/>
       </c>
       <c r="H18" s="4"/>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>165583912</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18">
         <v>1</v>
       </c>
       <c r="L18"/>
@@ -1837,10 +1829,10 @@
         <v/>
       </c>
       <c r="H19" s="4"/>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <v>338970098</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19">
         <v>1</v>
       </c>
       <c r="L19"/>
@@ -1867,10 +1859,10 @@
         <v>18</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>664976481</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20">
         <v>1</v>
       </c>
     </row>
@@ -1896,10 +1888,10 @@
         <v/>
       </c>
       <c r="H21" s="4"/>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <v>726176636</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21">
         <v>1</v>
       </c>
     </row>
@@ -1925,10 +1917,10 @@
         <v/>
       </c>
       <c r="H22" s="4"/>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
         <v>933295672</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22">
         <v>1</v>
       </c>
     </row>
@@ -1954,10 +1946,10 @@
         <v/>
       </c>
       <c r="H23" s="4"/>
-      <c r="J23" s="8">
+      <c r="J23" s="7">
         <v>165583917</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23">
         <v>1</v>
       </c>
     </row>
@@ -1986,7 +1978,7 @@
       <c r="J24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24">
         <v>3</v>
       </c>
     </row>
@@ -2012,10 +2004,10 @@
         <v/>
       </c>
       <c r="H25" s="4"/>
-      <c r="J25" s="8">
+      <c r="J25" s="7">
         <v>32211982</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25">
         <v>1</v>
       </c>
     </row>
@@ -2041,10 +2033,10 @@
         <v/>
       </c>
       <c r="H26" s="4"/>
-      <c r="J26" s="8">
+      <c r="J26" s="7">
         <v>171373185</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26">
         <v>1</v>
       </c>
     </row>
@@ -2070,10 +2062,10 @@
         <v/>
       </c>
       <c r="H27" s="4"/>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <v>608474578</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27">
         <v>1</v>
       </c>
     </row>
@@ -2102,7 +2094,7 @@
       <c r="J28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28">
         <v>2</v>
       </c>
     </row>
@@ -2128,10 +2120,10 @@
         <v>27</v>
       </c>
       <c r="H29" s="4"/>
-      <c r="J29" s="8">
+      <c r="J29" s="7">
         <v>175072692</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29">
         <v>1</v>
       </c>
     </row>
@@ -2157,10 +2149,10 @@
         <v/>
       </c>
       <c r="H30" s="4"/>
-      <c r="J30" s="8">
+      <c r="J30" s="7">
         <v>878769155</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30">
         <v>1</v>
       </c>
     </row>
@@ -2189,7 +2181,7 @@
       <c r="J31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31">
         <v>4</v>
       </c>
     </row>
@@ -2215,10 +2207,10 @@
         <v>30</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="J32" s="8">
+      <c r="J32" s="7">
         <v>661126751</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32">
         <v>1</v>
       </c>
     </row>
@@ -2235,19 +2227,19 @@
       <c r="E33" s="4">
         <v>1</v>
       </c>
-      <c r="F33" s="9" t="str">
+      <c r="F33" s="4" t="str">
         <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Etiqueta]],Auxilar!$B$3:$B$9,Auxilar!$C$3:$C$9,,0,1)</f>
         <v>Etiqueta 1</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="4">
         <f>IF(Tabla1[[#This Row],[Descripción de etiqueta]]=Tabla1[[#Headers],[Etiqueta 1]],Tabla1[[#This Row],[Registro°]],"")</f>
         <v>31</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="J33" s="8">
+      <c r="H33" s="4"/>
+      <c r="J33" s="7">
         <v>708339868</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33">
         <v>1</v>
       </c>
     </row>
@@ -2264,26 +2256,26 @@
       <c r="E34" s="4">
         <v>1</v>
       </c>
-      <c r="F34" s="9" t="str">
+      <c r="F34" s="4" t="str">
         <f>_xlfn.XLOOKUP(Tabla1[[#This Row],[Etiqueta]],Auxilar!$B$3:$B$9,Auxilar!$C$3:$C$9,,0,1)</f>
         <v>Etiqueta 1</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="4">
         <f>IF(Tabla1[[#This Row],[Descripción de etiqueta]]=Tabla1[[#Headers],[Etiqueta 1]],Tabla1[[#This Row],[Registro°]],"")</f>
         <v>32</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="7">
         <v>866790468</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J35" s="8">
+      <c r="J35" s="7">
         <v>917638782</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35">
         <v>1</v>
       </c>
     </row>
@@ -2291,39 +2283,39 @@
       <c r="J36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J37" s="8">
+      <c r="J37" s="7">
         <v>38493986</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J38" s="8">
+      <c r="J38" s="7">
         <v>109890851</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J39" s="8">
+      <c r="J39" s="7">
         <v>994173945</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J40" s="8">
+      <c r="J40" s="7">
         <v>997080699</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40">
         <v>1</v>
       </c>
     </row>
@@ -2331,7 +2323,7 @@
       <c r="J41" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41">
         <v>31</v>
       </c>
     </row>
@@ -2348,8 +2340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB11932-83A6-4DCC-AA61-E48120C7A607}">
   <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2419,7 +2411,7 @@
       <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="9" cm="1">
+      <c r="C6" s="4" cm="1">
         <f t="array" ref="C6">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>933295672</v>
       </c>
@@ -2432,7 +2424,7 @@
       <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="9" cm="1">
+      <c r="C7" s="4" cm="1">
         <f t="array" ref="C7">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>338970098</v>
       </c>
@@ -2445,7 +2437,7 @@
       <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="9" cm="1">
+      <c r="C8" s="4" cm="1">
         <f t="array" ref="C8">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>664976481</v>
       </c>
@@ -2458,7 +2450,7 @@
       <c r="B9" s="4">
         <v>6</v>
       </c>
-      <c r="C9" s="9" cm="1">
+      <c r="C9" s="4" cm="1">
         <f t="array" ref="C9">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>165583912</v>
       </c>
@@ -2471,7 +2463,7 @@
       <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="9" cm="1">
+      <c r="C10" s="4" cm="1">
         <f t="array" ref="C10">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>165583917</v>
       </c>
@@ -2484,7 +2476,7 @@
       <c r="B11" s="4">
         <v>8</v>
       </c>
-      <c r="C11" s="9" cm="1">
+      <c r="C11" s="4" cm="1">
         <f t="array" ref="C11">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>165583915</v>
       </c>
@@ -2497,7 +2489,7 @@
       <c r="B12" s="4">
         <v>9</v>
       </c>
-      <c r="C12" s="9" cm="1">
+      <c r="C12" s="4" cm="1">
         <f t="array" ref="C12">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2510,7 +2502,7 @@
       <c r="B13" s="4">
         <v>10</v>
       </c>
-      <c r="C13" s="9" cm="1">
+      <c r="C13" s="4" cm="1">
         <f t="array" ref="C13">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2523,7 +2515,7 @@
       <c r="B14" s="4">
         <v>11</v>
       </c>
-      <c r="C14" s="9" cm="1">
+      <c r="C14" s="4" cm="1">
         <f t="array" ref="C14">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2536,7 +2528,7 @@
       <c r="B15" s="4">
         <v>12</v>
       </c>
-      <c r="C15" s="9" cm="1">
+      <c r="C15" s="4" cm="1">
         <f t="array" ref="C15">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2549,7 +2541,7 @@
       <c r="B16" s="4">
         <v>13</v>
       </c>
-      <c r="C16" s="9" cm="1">
+      <c r="C16" s="4" cm="1">
         <f t="array" ref="C16">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2562,7 +2554,7 @@
       <c r="B17" s="4">
         <v>14</v>
       </c>
-      <c r="C17" s="9" cm="1">
+      <c r="C17" s="4" cm="1">
         <f t="array" ref="C17">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2575,7 +2567,7 @@
       <c r="B18" s="4">
         <v>15</v>
       </c>
-      <c r="C18" s="9" cm="1">
+      <c r="C18" s="4" cm="1">
         <f t="array" ref="C18">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2588,7 +2580,7 @@
       <c r="B19" s="4">
         <v>16</v>
       </c>
-      <c r="C19" s="9" cm="1">
+      <c r="C19" s="4" cm="1">
         <f t="array" ref="C19">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2601,7 +2593,7 @@
       <c r="B20" s="4">
         <v>17</v>
       </c>
-      <c r="C20" s="9" cm="1">
+      <c r="C20" s="4" cm="1">
         <f t="array" ref="C20">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2614,7 +2606,7 @@
       <c r="B21" s="4">
         <v>18</v>
       </c>
-      <c r="C21" s="9" cm="1">
+      <c r="C21" s="4" cm="1">
         <f t="array" ref="C21">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2627,7 +2619,7 @@
       <c r="B22" s="4">
         <v>19</v>
       </c>
-      <c r="C22" s="9" cm="1">
+      <c r="C22" s="4" cm="1">
         <f t="array" ref="C22">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2640,7 +2632,7 @@
       <c r="B23" s="4">
         <v>20</v>
       </c>
-      <c r="C23" s="9" cm="1">
+      <c r="C23" s="4" cm="1">
         <f t="array" ref="C23">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2653,7 +2645,7 @@
       <c r="B24" s="4">
         <v>21</v>
       </c>
-      <c r="C24" s="9" cm="1">
+      <c r="C24" s="4" cm="1">
         <f t="array" ref="C24">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2666,7 +2658,7 @@
       <c r="B25" s="4">
         <v>22</v>
       </c>
-      <c r="C25" s="9" cm="1">
+      <c r="C25" s="4" cm="1">
         <f t="array" ref="C25">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2679,7 +2671,7 @@
       <c r="B26" s="4">
         <v>23</v>
       </c>
-      <c r="C26" s="9" cm="1">
+      <c r="C26" s="4" cm="1">
         <f t="array" ref="C26">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2692,7 +2684,7 @@
       <c r="B27" s="4">
         <v>24</v>
       </c>
-      <c r="C27" s="9" cm="1">
+      <c r="C27" s="4" cm="1">
         <f t="array" ref="C27">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2705,7 +2697,7 @@
       <c r="B28" s="4">
         <v>25</v>
       </c>
-      <c r="C28" s="9" cm="1">
+      <c r="C28" s="4" cm="1">
         <f t="array" ref="C28">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2718,7 +2710,7 @@
       <c r="B29" s="4">
         <v>26</v>
       </c>
-      <c r="C29" s="9" cm="1">
+      <c r="C29" s="4" cm="1">
         <f t="array" ref="C29">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2731,7 +2723,7 @@
       <c r="B30" s="4">
         <v>27</v>
       </c>
-      <c r="C30" s="9" cm="1">
+      <c r="C30" s="4" cm="1">
         <f t="array" ref="C30">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2744,7 +2736,7 @@
       <c r="B31" s="4">
         <v>28</v>
       </c>
-      <c r="C31" s="9" cm="1">
+      <c r="C31" s="4" cm="1">
         <f t="array" ref="C31">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2757,7 +2749,7 @@
       <c r="B32" s="4">
         <v>29</v>
       </c>
-      <c r="C32" s="9" cm="1">
+      <c r="C32" s="4" cm="1">
         <f t="array" ref="C32">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
@@ -2770,7 +2762,7 @@
       <c r="B33" s="4">
         <v>30</v>
       </c>
-      <c r="C33" s="9" cm="1">
+      <c r="C33" s="4" cm="1">
         <f t="array" ref="C33">IFERROR(INDEX(Tabla1[#Data],SMALL(Tabla1[[#Data],[Etiqueta 1]],Tabla2[[#This Row],[N°]]),3),0)</f>
         <v>0</v>
       </c>
